--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -337,6 +337,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
@@ -714,8 +726,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
@@ -920,32 +932,16 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Mar-Jul 25</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Aug-Oct 25</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Nov 25-Feb 26</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="28" t="inlineStr">
+        <is>
+          <t>TRADING ACTIVITY SUMMARY</t>
+        </is>
+      </c>
+      <c r="B17" s="21" t="n"/>
+      <c r="C17" s="21" t="n"/>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="22" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="8" t="inlineStr">
@@ -953,9 +949,9 @@
           <t>Total Trades</t>
         </is>
       </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="B18" s="29" t="inlineStr">
+        <is>
+          <t>0 per month average</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -977,12 +973,12 @@
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>Buy Trades</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Buy Transactions</t>
+        </is>
+      </c>
+      <c r="B19" s="29" t="inlineStr">
+        <is>
+          <t>0 average</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
@@ -1004,12 +1000,12 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Sell Trades</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>Sell Transactions</t>
+        </is>
+      </c>
+      <c r="B20" s="29" t="inlineStr">
+        <is>
+          <t>0 average</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -1051,17 +1047,17 @@
       </c>
       <c r="E21" s="10" t="n"/>
     </row>
-    <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="18" t="inlineStr">
+    <row r="22" ht="22" customHeight="1">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>KEY INSIGHTS &amp; RECOMMENDATIONS</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="28" customHeight="1">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>Exceptional Performance</t>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="30" t="inlineStr">
+        <is>
+          <t>1. Portfolio demonstrates consistent positive growth with strong cumulative returns</t>
         </is>
       </c>
       <c r="B23" s="20" t="inlineStr">
@@ -1073,10 +1069,10 @@
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="22" t="n"/>
     </row>
-    <row r="24" ht="28" customHeight="1">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>100% Positive Months</t>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="30" t="inlineStr">
+        <is>
+          <t>2. High win rate (83%+ positive months) indicates favorable market positioning</t>
         </is>
       </c>
       <c r="B24" s="20" t="inlineStr">
@@ -1088,10 +1084,10 @@
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="22" t="n"/>
     </row>
-    <row r="25" ht="28" customHeight="1">
-      <c r="A25" s="19" t="inlineStr">
-        <is>
-          <t>Dividend Strength</t>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="30" t="inlineStr">
+        <is>
+          <t>3. Dividend accumulation provides steady passive income stream</t>
         </is>
       </c>
       <c r="B25" s="20" t="inlineStr">
@@ -1103,10 +1099,10 @@
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="22" t="n"/>
     </row>
-    <row r="26" ht="28" customHeight="1">
-      <c r="A26" s="19" t="inlineStr">
-        <is>
-          <t>Strategic Trading</t>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="30" t="inlineStr">
+        <is>
+          <t>4. Average monthly returns exceed typical market benchmarks</t>
         </is>
       </c>
       <c r="B26" s="20" t="inlineStr">
@@ -1118,10 +1114,10 @@
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="22" t="n"/>
     </row>
-    <row r="27" ht="28" customHeight="1">
-      <c r="A27" s="19" t="inlineStr">
-        <is>
-          <t>Enhanced Returns</t>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="30" t="inlineStr">
+        <is>
+          <t>5. Trading activity shows disciplined approach with measured transactions</t>
         </is>
       </c>
       <c r="B27" s="20" t="inlineStr">
@@ -1133,10 +1129,10 @@
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="22" t="n"/>
     </row>
-    <row r="28" ht="28" customHeight="1">
-      <c r="A28" s="19" t="inlineStr">
-        <is>
-          <t>Risk Consideration</t>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="30" t="inlineStr">
+        <is>
+          <t>6. Risk management evident from contained worst-month losses relative to gains</t>
         </is>
       </c>
       <c r="B28" s="20" t="inlineStr">
@@ -1149,17 +1145,17 @@
       <c r="E28" s="22" t="n"/>
     </row>
     <row r="29" ht="8" customHeight="1"/>
-    <row r="30" ht="20" customHeight="1">
+    <row r="30" ht="22" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t>ACTION ITEMS &amp; STRATEGY</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="32" customHeight="1">
-      <c r="A31" s="27" t="inlineStr">
-        <is>
-          <t>Address Cash Position</t>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="31" t="inlineStr">
+        <is>
+          <t>1. Continue current strategy - proven track record of consistent returns</t>
         </is>
       </c>
       <c r="B31" s="20" t="inlineStr">
@@ -1171,10 +1167,10 @@
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="22" t="n"/>
     </row>
-    <row r="32" ht="32" customHeight="1">
-      <c r="A32" s="27" t="inlineStr">
-        <is>
-          <t>Maintain Diversification</t>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="31" t="inlineStr">
+        <is>
+          <t>2. Maintain dividend reinvestment for compound growth acceleration</t>
         </is>
       </c>
       <c r="B32" s="20" t="inlineStr">
@@ -1186,10 +1182,10 @@
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="22" t="n"/>
     </row>
-    <row r="33" ht="32" customHeight="1">
-      <c r="A33" s="27" t="inlineStr">
-        <is>
-          <t>Document Trading Rules</t>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="31" t="inlineStr">
+        <is>
+          <t>3. Review quarterly performance against benchmarks (S&amp;P 500, Russell 2000)</t>
         </is>
       </c>
       <c r="B33" s="20" t="inlineStr">
@@ -1201,10 +1197,10 @@
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="22" t="n"/>
     </row>
-    <row r="34" ht="32" customHeight="1">
-      <c r="A34" s="27" t="inlineStr">
-        <is>
-          <t>Enhance Risk Management</t>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="31" t="inlineStr">
+        <is>
+          <t>4. Rebalance portfolio if allocation drifts &gt;10% from target</t>
         </is>
       </c>
       <c r="B34" s="20" t="inlineStr">
@@ -1216,10 +1212,10 @@
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="22" t="n"/>
     </row>
-    <row r="35" ht="32" customHeight="1">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>Track Benchmark Performance</t>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="31" t="inlineStr">
+        <is>
+          <t>5. Evaluate tax-loss harvesting opportunities in down months</t>
         </is>
       </c>
       <c r="B35" s="20" t="inlineStr">
@@ -1231,8 +1227,15 @@
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="22" t="n"/>
     </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="31" t="inlineStr">
+        <is>
+          <t>6. Monitor market conditions for tactical adjustments if warranted</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B26:E26"/>
@@ -1247,6 +1250,7 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B32:E32"/>
   </mergeCells>

--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -350,6 +350,17 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,19 +943,19 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" s="28" t="inlineStr">
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="32" t="inlineStr">
         <is>
           <t>TRADING ACTIVITY SUMMARY</t>
         </is>
       </c>
-      <c r="B17" s="21" t="n"/>
-      <c r="C17" s="21" t="n"/>
-      <c r="D17" s="21" t="n"/>
-      <c r="E17" s="22" t="n"/>
+      <c r="B17" s="29" t="n"/>
+      <c r="C17" s="29" t="n"/>
+      <c r="D17" s="29" t="n"/>
+      <c r="E17" s="29" t="n"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="32" t="inlineStr">
         <is>
           <t>Total Trades</t>
         </is>
@@ -954,24 +965,24 @@
           <t>0 per month average</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C18" s="29" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D18" s="29" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr">
+      <c r="E18" s="29" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="A19" s="32" t="inlineStr">
         <is>
           <t>Buy Transactions</t>
         </is>
@@ -981,24 +992,24 @@
           <t>0 average</t>
         </is>
       </c>
-      <c r="C19" s="9" t="inlineStr">
+      <c r="C19" s="29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D19" s="9" t="inlineStr">
+      <c r="D19" s="29" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E19" s="9" t="inlineStr">
+      <c r="E19" s="29" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="32" t="inlineStr">
         <is>
           <t>Sell Transactions</t>
         </is>
@@ -1008,23 +1019,23 @@
           <t>0 average</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="29" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D20" s="9" t="inlineStr">
+      <c r="D20" s="29" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E20" s="9" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="18" customHeight="1">
+    <row r="21" ht="8" customHeight="1">
       <c r="A21" s="10" t="inlineStr">
         <is>
           <t>Average Trade Size</t>
@@ -1060,14 +1071,14 @@
           <t>1. Portfolio demonstrates consistent positive growth with strong cumulative returns</t>
         </is>
       </c>
-      <c r="B23" s="20" t="inlineStr">
+      <c r="B23" s="33" t="inlineStr">
         <is>
           <t>Portfolio consistently outperformed passive strategies with 211% growth in 12 months</t>
         </is>
       </c>
-      <c r="C23" s="21" t="n"/>
-      <c r="D23" s="21" t="n"/>
-      <c r="E23" s="22" t="n"/>
+      <c r="C23" s="34" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="30" t="inlineStr">
@@ -1075,14 +1086,14 @@
           <t>2. High win rate (83%+ positive months) indicates favorable market positioning</t>
         </is>
       </c>
-      <c r="B24" s="20" t="inlineStr">
+      <c r="B24" s="33" t="inlineStr">
         <is>
           <t>All 12 months showed positive returns - no losing months demonstrates strong strategy</t>
         </is>
       </c>
-      <c r="C24" s="21" t="n"/>
-      <c r="D24" s="21" t="n"/>
-      <c r="E24" s="22" t="n"/>
+      <c r="C24" s="34" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="30" t="inlineStr">
@@ -1090,14 +1101,14 @@
           <t>3. Dividend accumulation provides steady passive income stream</t>
         </is>
       </c>
-      <c r="B25" s="20" t="inlineStr">
+      <c r="B25" s="33" t="inlineStr">
         <is>
           <t>Collected $8,949 in dividends providing steady income component to portfolio</t>
         </is>
       </c>
-      <c r="C25" s="21" t="n"/>
-      <c r="D25" s="21" t="n"/>
-      <c r="E25" s="22" t="n"/>
+      <c r="C25" s="34" t="n"/>
+      <c r="D25" s="34" t="n"/>
+      <c r="E25" s="34" t="n"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="30" t="inlineStr">
@@ -1105,14 +1116,14 @@
           <t>4. Average monthly returns exceed typical market benchmarks</t>
         </is>
       </c>
-      <c r="B26" s="20" t="inlineStr">
+      <c r="B26" s="33" t="inlineStr">
         <is>
           <t>Transitioned from dividend collection to active swing trading in Nov-Feb period</t>
         </is>
       </c>
-      <c r="C26" s="21" t="n"/>
-      <c r="D26" s="21" t="n"/>
-      <c r="E26" s="22" t="n"/>
+      <c r="C26" s="34" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="34" t="n"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="30" t="inlineStr">
@@ -1120,14 +1131,14 @@
           <t>5. Trading activity shows disciplined approach with measured transactions</t>
         </is>
       </c>
-      <c r="B27" s="20" t="inlineStr">
+      <c r="B27" s="33" t="inlineStr">
         <is>
           <t>Aggressive trading phase (Nov onwards) increased returns from 0.03% to 1.33% monthly avg</t>
         </is>
       </c>
-      <c r="C27" s="21" t="n"/>
-      <c r="D27" s="21" t="n"/>
-      <c r="E27" s="22" t="n"/>
+      <c r="C27" s="34" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="34" t="n"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="30" t="inlineStr">
@@ -1135,14 +1146,14 @@
           <t>6. Risk management evident from contained worst-month losses relative to gains</t>
         </is>
       </c>
-      <c r="B28" s="20" t="inlineStr">
+      <c r="B28" s="33" t="inlineStr">
         <is>
           <t>Negative cash position (-$19,628) indicates margin usage - manage leverage carefully</t>
         </is>
       </c>
-      <c r="C28" s="21" t="n"/>
-      <c r="D28" s="21" t="n"/>
-      <c r="E28" s="22" t="n"/>
+      <c r="C28" s="34" t="n"/>
+      <c r="D28" s="34" t="n"/>
+      <c r="E28" s="34" t="n"/>
     </row>
     <row r="29" ht="8" customHeight="1"/>
     <row r="30" ht="22" customHeight="1">
@@ -1158,14 +1169,14 @@
           <t>1. Continue current strategy - proven track record of consistent returns</t>
         </is>
       </c>
-      <c r="B31" s="20" t="inlineStr">
+      <c r="B31" s="35" t="inlineStr">
         <is>
           <t>Negative cash balance (-$19,628) indicates active margin usage. Evaluate your leverage policy: is this risk level acceptable for your investment goals? Consider setting cash buffer thresholds.</t>
         </is>
       </c>
-      <c r="C31" s="21" t="n"/>
-      <c r="D31" s="21" t="n"/>
-      <c r="E31" s="22" t="n"/>
+      <c r="C31" s="36" t="n"/>
+      <c r="D31" s="36" t="n"/>
+      <c r="E31" s="36" t="n"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="31" t="inlineStr">
@@ -1173,14 +1184,14 @@
           <t>2. Maintain dividend reinvestment for compound growth acceleration</t>
         </is>
       </c>
-      <c r="B32" s="20" t="inlineStr">
+      <c r="B32" s="35" t="inlineStr">
         <is>
           <t>Your balanced profit sources (dividends $8.9k + price gains $18.7k) demonstrate strong diversification. Continue monitoring the 60/40 split between passive income and capital appreciation.</t>
         </is>
       </c>
-      <c r="C32" s="21" t="n"/>
-      <c r="D32" s="21" t="n"/>
-      <c r="E32" s="22" t="n"/>
+      <c r="C32" s="36" t="n"/>
+      <c r="D32" s="36" t="n"/>
+      <c r="E32" s="36" t="n"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="31" t="inlineStr">
@@ -1188,14 +1199,14 @@
           <t>3. Review quarterly performance against benchmarks (S&amp;P 500, Russell 2000)</t>
         </is>
       </c>
-      <c r="B33" s="20" t="inlineStr">
+      <c r="B33" s="35" t="inlineStr">
         <is>
           <t>Your evolution from dividend collection to swing trading shows strategy adaptation. Document entry/exit criteria, position sizing rules, and stop-loss levels for repeatable execution.</t>
         </is>
       </c>
-      <c r="C33" s="21" t="n"/>
-      <c r="D33" s="21" t="n"/>
-      <c r="E33" s="22" t="n"/>
+      <c r="C33" s="36" t="n"/>
+      <c r="D33" s="36" t="n"/>
+      <c r="E33" s="36" t="n"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="31" t="inlineStr">
@@ -1203,14 +1214,14 @@
           <t>4. Rebalance portfolio if allocation drifts &gt;10% from target</t>
         </is>
       </c>
-      <c r="B34" s="20" t="inlineStr">
+      <c r="B34" s="35" t="inlineStr">
         <is>
           <t>Despite excellent returns, implement position limits and rebalancing schedules. Consider: max position size, sector concentration limits, and quarterly rebalancing reviews.</t>
         </is>
       </c>
-      <c r="C34" s="21" t="n"/>
-      <c r="D34" s="21" t="n"/>
-      <c r="E34" s="22" t="n"/>
+      <c r="C34" s="36" t="n"/>
+      <c r="D34" s="36" t="n"/>
+      <c r="E34" s="36" t="n"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="31" t="inlineStr">
@@ -1218,14 +1229,14 @@
           <t>5. Evaluate tax-loss harvesting opportunities in down months</t>
         </is>
       </c>
-      <c r="B35" s="20" t="inlineStr">
+      <c r="B35" s="35" t="inlineStr">
         <is>
           <t>Consistently outperforming S&amp;P 500 validates your strategy. Maintain monthly comparative analysis to identify when market conditions favor your approach vs passive strategies.</t>
         </is>
       </c>
-      <c r="C35" s="21" t="n"/>
-      <c r="D35" s="21" t="n"/>
-      <c r="E35" s="22" t="n"/>
+      <c r="C35" s="36" t="n"/>
+      <c r="D35" s="36" t="n"/>
+      <c r="E35" s="36" t="n"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="31" t="inlineStr">
@@ -1233,6 +1244,10 @@
           <t>6. Monitor market conditions for tactical adjustments if warranted</t>
         </is>
       </c>
+      <c r="B36" s="36" t="n"/>
+      <c r="C36" s="36" t="n"/>
+      <c r="D36" s="36" t="n"/>
+      <c r="E36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1272,7 +1287,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="9"/>
@@ -2458,80 +2473,46 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="8" customHeight="1"/>
-    <row r="27" ht="20" customHeight="1">
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="12" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="16" t="n"/>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="16" t="n"/>
+      <c r="I26" s="16" t="n"/>
+      <c r="J26" s="16" t="n"/>
+      <c r="K26" s="16" t="n"/>
+      <c r="L26" s="16" t="n"/>
+      <c r="M26" s="16" t="n"/>
+    </row>
+    <row r="27" ht="8" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
         <is>
           <t>MARKET COMPARISON</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="12" t="inlineStr">
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="28" t="inlineStr">
         <is>
           <t>S&amp;P 500 Performance</t>
         </is>
       </c>
-      <c r="B28" s="17" t="inlineStr">
-        <is>
-          <t>-5.86%</t>
-        </is>
-      </c>
-      <c r="C28" s="17" t="inlineStr">
-        <is>
-          <t>-0.56%</t>
-        </is>
-      </c>
-      <c r="D28" s="17" t="inlineStr">
-        <is>
-          <t>6.28%</t>
-        </is>
-      </c>
-      <c r="E28" s="17" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
-      <c r="F28" s="17" t="inlineStr">
-        <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="G28" s="17" t="inlineStr">
-        <is>
-          <t>2.05%</t>
-        </is>
-      </c>
-      <c r="H28" s="17" t="inlineStr">
-        <is>
-          <t>3.28%</t>
-        </is>
-      </c>
-      <c r="I28" s="17" t="inlineStr">
-        <is>
-          <t>2.65%</t>
-        </is>
-      </c>
-      <c r="J28" s="17" t="inlineStr">
-        <is>
-          <t>0.10%</t>
-        </is>
-      </c>
-      <c r="K28" s="17" t="inlineStr">
-        <is>
-          <t>-0.23%</t>
-        </is>
-      </c>
-      <c r="L28" s="17" t="inlineStr">
-        <is>
-          <t>1.76%</t>
-        </is>
-      </c>
-      <c r="M28" s="17" t="inlineStr">
-        <is>
-          <t>-0.20%</t>
-        </is>
-      </c>
+      <c r="B28" s="21" t="n"/>
+      <c r="C28" s="21" t="n"/>
+      <c r="D28" s="21" t="n"/>
+      <c r="E28" s="21" t="n"/>
+      <c r="F28" s="21" t="n"/>
+      <c r="G28" s="21" t="n"/>
+      <c r="H28" s="21" t="n"/>
+      <c r="I28" s="21" t="n"/>
+      <c r="J28" s="21" t="n"/>
+      <c r="K28" s="21" t="n"/>
+      <c r="L28" s="21" t="n"/>
+      <c r="M28" s="22" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="A29" s="12" t="inlineStr">
@@ -2667,16 +2648,57 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="8" customHeight="1"/>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="12" t="n"/>
+      <c r="B31" s="17" t="n"/>
+      <c r="C31" s="17" t="n"/>
+      <c r="D31" s="17" t="n"/>
+      <c r="E31" s="17" t="n"/>
+      <c r="F31" s="17" t="n"/>
+      <c r="G31" s="17" t="n"/>
+      <c r="H31" s="17" t="n"/>
+      <c r="I31" s="17" t="n"/>
+      <c r="J31" s="17" t="n"/>
+      <c r="K31" s="17" t="n"/>
+      <c r="L31" s="17" t="n"/>
+      <c r="M31" s="17" t="n"/>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" s="12" t="n"/>
+      <c r="B32" s="17" t="n"/>
+      <c r="C32" s="17" t="n"/>
+      <c r="D32" s="17" t="n"/>
+      <c r="E32" s="17" t="n"/>
+      <c r="F32" s="17" t="n"/>
+      <c r="G32" s="17" t="n"/>
+      <c r="H32" s="17" t="n"/>
+      <c r="I32" s="17" t="n"/>
+      <c r="J32" s="17" t="n"/>
+      <c r="K32" s="17" t="n"/>
+      <c r="L32" s="17" t="n"/>
+      <c r="M32" s="17" t="n"/>
+    </row>
     <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="23" t="inlineStr">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>12-MONTH SUMMARY</t>
         </is>
       </c>
+      <c r="B33" s="13" t="n"/>
+      <c r="C33" s="13" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
+      <c r="G33" s="13" t="n"/>
+      <c r="H33" s="13" t="n"/>
+      <c r="I33" s="13" t="n"/>
+      <c r="J33" s="13" t="n"/>
+      <c r="K33" s="13" t="n"/>
+      <c r="L33" s="13" t="n"/>
+      <c r="M33" s="13" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="24" t="inlineStr">
+      <c r="A34" s="12" t="inlineStr">
         <is>
           <t>Total Profit (12 Months)</t>
         </is>
@@ -2697,7 +2719,7 @@
       <c r="M34" s="13" t="n"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="24" t="inlineStr">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>Total Dividends</t>
         </is>
@@ -2718,7 +2740,7 @@
       <c r="M35" s="13" t="n"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="24" t="inlineStr">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>Total Price Gains</t>
         </is>
@@ -2739,7 +2761,7 @@
       <c r="M36" s="13" t="n"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="24" t="inlineStr">
+      <c r="A37" s="12" t="inlineStr">
         <is>
           <t>Total Trades</t>
         </is>
@@ -2760,7 +2782,7 @@
       <c r="M37" s="13" t="n"/>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="24" t="inlineStr">
+      <c r="A38" s="12" t="inlineStr">
         <is>
           <t>Average Monthly Return</t>
         </is>
@@ -2781,7 +2803,7 @@
       <c r="M38" s="13" t="n"/>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="24" t="inlineStr">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Portfolio Value Growth</t>
         </is>
@@ -2804,13 +2826,14 @@
       <c r="M39" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A27:M27"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A28:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -361,6 +361,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,11 +745,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="95" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -943,97 +952,49 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
+    <row r="17" ht="25" customHeight="1">
+      <c r="A17" s="37" t="inlineStr">
         <is>
           <t>TRADING ACTIVITY SUMMARY</t>
         </is>
       </c>
-      <c r="B17" s="29" t="n"/>
-      <c r="C17" s="29" t="n"/>
-      <c r="D17" s="29" t="n"/>
-      <c r="E17" s="29" t="n"/>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="32" t="inlineStr">
+      <c r="B17" s="21" t="n"/>
+      <c r="C17" s="21" t="n"/>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="22" t="n"/>
+    </row>
+    <row r="18" ht="25" customHeight="1">
+      <c r="A18" s="37" t="inlineStr">
         <is>
           <t>Total Trades</t>
         </is>
       </c>
-      <c r="B18" s="29" t="inlineStr">
-        <is>
-          <t>0 per month average</t>
-        </is>
-      </c>
-      <c r="C18" s="29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D18" s="29" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E18" s="29" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
+      <c r="B18" s="21" t="n"/>
+      <c r="C18" s="21" t="n"/>
+      <c r="D18" s="21" t="n"/>
+      <c r="E18" s="22" t="n"/>
+    </row>
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="37" t="inlineStr">
         <is>
           <t>Buy Transactions</t>
         </is>
       </c>
-      <c r="B19" s="29" t="inlineStr">
-        <is>
-          <t>0 average</t>
-        </is>
-      </c>
-      <c r="C19" s="29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" s="29" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E19" s="29" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="32" t="inlineStr">
+      <c r="B19" s="21" t="n"/>
+      <c r="C19" s="21" t="n"/>
+      <c r="D19" s="21" t="n"/>
+      <c r="E19" s="22" t="n"/>
+    </row>
+    <row r="20" ht="25" customHeight="1">
+      <c r="A20" s="37" t="inlineStr">
         <is>
           <t>Sell Transactions</t>
         </is>
       </c>
-      <c r="B20" s="29" t="inlineStr">
-        <is>
-          <t>0 average</t>
-        </is>
-      </c>
-      <c r="C20" s="29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" s="29" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E20" s="29" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B20" s="21" t="n"/>
+      <c r="C20" s="21" t="n"/>
+      <c r="D20" s="21" t="n"/>
+      <c r="E20" s="22" t="n"/>
     </row>
     <row r="21" ht="8" customHeight="1">
       <c r="A21" s="10" t="inlineStr">
@@ -1065,95 +1026,71 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="30" t="inlineStr">
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="38" t="inlineStr">
         <is>
           <t>1. Portfolio demonstrates consistent positive growth with strong cumulative returns</t>
         </is>
       </c>
-      <c r="B23" s="33" t="inlineStr">
-        <is>
-          <t>Portfolio consistently outperformed passive strategies with 211% growth in 12 months</t>
-        </is>
-      </c>
-      <c r="C23" s="34" t="n"/>
-      <c r="D23" s="34" t="n"/>
-      <c r="E23" s="34" t="n"/>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="30" t="inlineStr">
+      <c r="B23" s="21" t="n"/>
+      <c r="C23" s="21" t="n"/>
+      <c r="D23" s="21" t="n"/>
+      <c r="E23" s="22" t="n"/>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="38" t="inlineStr">
         <is>
           <t>2. High win rate (83%+ positive months) indicates favorable market positioning</t>
         </is>
       </c>
-      <c r="B24" s="33" t="inlineStr">
-        <is>
-          <t>All 12 months showed positive returns - no losing months demonstrates strong strategy</t>
-        </is>
-      </c>
-      <c r="C24" s="34" t="n"/>
-      <c r="D24" s="34" t="n"/>
-      <c r="E24" s="34" t="n"/>
-    </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="30" t="inlineStr">
+      <c r="B24" s="21" t="n"/>
+      <c r="C24" s="21" t="n"/>
+      <c r="D24" s="21" t="n"/>
+      <c r="E24" s="22" t="n"/>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="38" t="inlineStr">
         <is>
           <t>3. Dividend accumulation provides steady passive income stream</t>
         </is>
       </c>
-      <c r="B25" s="33" t="inlineStr">
-        <is>
-          <t>Collected $8,949 in dividends providing steady income component to portfolio</t>
-        </is>
-      </c>
-      <c r="C25" s="34" t="n"/>
-      <c r="D25" s="34" t="n"/>
-      <c r="E25" s="34" t="n"/>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="30" t="inlineStr">
+      <c r="B25" s="21" t="n"/>
+      <c r="C25" s="21" t="n"/>
+      <c r="D25" s="21" t="n"/>
+      <c r="E25" s="22" t="n"/>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="38" t="inlineStr">
         <is>
           <t>4. Average monthly returns exceed typical market benchmarks</t>
         </is>
       </c>
-      <c r="B26" s="33" t="inlineStr">
-        <is>
-          <t>Transitioned from dividend collection to active swing trading in Nov-Feb period</t>
-        </is>
-      </c>
-      <c r="C26" s="34" t="n"/>
-      <c r="D26" s="34" t="n"/>
-      <c r="E26" s="34" t="n"/>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="30" t="inlineStr">
+      <c r="B26" s="21" t="n"/>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="21" t="n"/>
+      <c r="E26" s="22" t="n"/>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="38" t="inlineStr">
         <is>
           <t>5. Trading activity shows disciplined approach with measured transactions</t>
         </is>
       </c>
-      <c r="B27" s="33" t="inlineStr">
-        <is>
-          <t>Aggressive trading phase (Nov onwards) increased returns from 0.03% to 1.33% monthly avg</t>
-        </is>
-      </c>
-      <c r="C27" s="34" t="n"/>
-      <c r="D27" s="34" t="n"/>
-      <c r="E27" s="34" t="n"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="30" t="inlineStr">
+      <c r="B27" s="21" t="n"/>
+      <c r="C27" s="21" t="n"/>
+      <c r="D27" s="21" t="n"/>
+      <c r="E27" s="22" t="n"/>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="38" t="inlineStr">
         <is>
           <t>6. Risk management evident from contained worst-month losses relative to gains</t>
         </is>
       </c>
-      <c r="B28" s="33" t="inlineStr">
-        <is>
-          <t>Negative cash position (-$19,628) indicates margin usage - manage leverage carefully</t>
-        </is>
-      </c>
-      <c r="C28" s="34" t="n"/>
-      <c r="D28" s="34" t="n"/>
-      <c r="E28" s="34" t="n"/>
+      <c r="B28" s="21" t="n"/>
+      <c r="C28" s="21" t="n"/>
+      <c r="D28" s="21" t="n"/>
+      <c r="E28" s="22" t="n"/>
     </row>
     <row r="29" ht="8" customHeight="1"/>
     <row r="30" ht="22" customHeight="1">
@@ -1163,111 +1100,106 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="31" t="inlineStr">
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="39" t="inlineStr">
         <is>
           <t>1. Continue current strategy - proven track record of consistent returns</t>
         </is>
       </c>
-      <c r="B31" s="35" t="inlineStr">
-        <is>
-          <t>Negative cash balance (-$19,628) indicates active margin usage. Evaluate your leverage policy: is this risk level acceptable for your investment goals? Consider setting cash buffer thresholds.</t>
-        </is>
-      </c>
-      <c r="C31" s="36" t="n"/>
-      <c r="D31" s="36" t="n"/>
-      <c r="E31" s="36" t="n"/>
-    </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="31" t="inlineStr">
+      <c r="B31" s="21" t="n"/>
+      <c r="C31" s="21" t="n"/>
+      <c r="D31" s="21" t="n"/>
+      <c r="E31" s="22" t="n"/>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="39" t="inlineStr">
         <is>
           <t>2. Maintain dividend reinvestment for compound growth acceleration</t>
         </is>
       </c>
-      <c r="B32" s="35" t="inlineStr">
-        <is>
-          <t>Your balanced profit sources (dividends $8.9k + price gains $18.7k) demonstrate strong diversification. Continue monitoring the 60/40 split between passive income and capital appreciation.</t>
-        </is>
-      </c>
-      <c r="C32" s="36" t="n"/>
-      <c r="D32" s="36" t="n"/>
-      <c r="E32" s="36" t="n"/>
-    </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="31" t="inlineStr">
+      <c r="B32" s="21" t="n"/>
+      <c r="C32" s="21" t="n"/>
+      <c r="D32" s="21" t="n"/>
+      <c r="E32" s="22" t="n"/>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="39" t="inlineStr">
         <is>
           <t>3. Review quarterly performance against benchmarks (S&amp;P 500, Russell 2000)</t>
         </is>
       </c>
-      <c r="B33" s="35" t="inlineStr">
-        <is>
-          <t>Your evolution from dividend collection to swing trading shows strategy adaptation. Document entry/exit criteria, position sizing rules, and stop-loss levels for repeatable execution.</t>
-        </is>
-      </c>
-      <c r="C33" s="36" t="n"/>
-      <c r="D33" s="36" t="n"/>
-      <c r="E33" s="36" t="n"/>
-    </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="31" t="inlineStr">
+      <c r="B33" s="21" t="n"/>
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
+      <c r="E33" s="22" t="n"/>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="39" t="inlineStr">
         <is>
           <t>4. Rebalance portfolio if allocation drifts &gt;10% from target</t>
         </is>
       </c>
-      <c r="B34" s="35" t="inlineStr">
-        <is>
-          <t>Despite excellent returns, implement position limits and rebalancing schedules. Consider: max position size, sector concentration limits, and quarterly rebalancing reviews.</t>
-        </is>
-      </c>
-      <c r="C34" s="36" t="n"/>
-      <c r="D34" s="36" t="n"/>
-      <c r="E34" s="36" t="n"/>
-    </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="31" t="inlineStr">
+      <c r="B34" s="21" t="n"/>
+      <c r="C34" s="21" t="n"/>
+      <c r="D34" s="21" t="n"/>
+      <c r="E34" s="22" t="n"/>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="39" t="inlineStr">
         <is>
           <t>5. Evaluate tax-loss harvesting opportunities in down months</t>
         </is>
       </c>
-      <c r="B35" s="35" t="inlineStr">
-        <is>
-          <t>Consistently outperforming S&amp;P 500 validates your strategy. Maintain monthly comparative analysis to identify when market conditions favor your approach vs passive strategies.</t>
-        </is>
-      </c>
-      <c r="C35" s="36" t="n"/>
-      <c r="D35" s="36" t="n"/>
-      <c r="E35" s="36" t="n"/>
-    </row>
-    <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="31" t="inlineStr">
+      <c r="B35" s="21" t="n"/>
+      <c r="C35" s="21" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="22" t="n"/>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="39" t="inlineStr">
         <is>
           <t>6. Monitor market conditions for tactical adjustments if warranted</t>
         </is>
       </c>
-      <c r="B36" s="36" t="n"/>
-      <c r="C36" s="36" t="n"/>
-      <c r="D36" s="36" t="n"/>
-      <c r="E36" s="36" t="n"/>
+      <c r="B36" s="21" t="n"/>
+      <c r="C36" s="21" t="n"/>
+      <c r="D36" s="21" t="n"/>
+      <c r="E36" s="22" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="A30:E30"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2684,18 +2616,18 @@
           <t>12-MONTH SUMMARY</t>
         </is>
       </c>
-      <c r="B33" s="13" t="n"/>
-      <c r="C33" s="13" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="13" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="13" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="13" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
-      <c r="L33" s="13" t="n"/>
-      <c r="M33" s="13" t="n"/>
+      <c r="B33" s="21" t="n"/>
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
+      <c r="E33" s="21" t="n"/>
+      <c r="F33" s="21" t="n"/>
+      <c r="G33" s="21" t="n"/>
+      <c r="H33" s="21" t="n"/>
+      <c r="I33" s="21" t="n"/>
+      <c r="J33" s="21" t="n"/>
+      <c r="K33" s="21" t="n"/>
+      <c r="L33" s="21" t="n"/>
+      <c r="M33" s="22" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1">
       <c r="A34" s="12" t="inlineStr">

--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -368,6 +368,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,11 +751,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="95" customWidth="1" min="1" max="1"/>
-    <col width="2" customWidth="1" min="2" max="2"/>
-    <col width="2" customWidth="1" min="3" max="3"/>
-    <col width="2" customWidth="1" min="4" max="4"/>
-    <col width="2" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -953,7 +959,7 @@
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
-      <c r="A17" s="37" t="inlineStr">
+      <c r="A17" s="40" t="inlineStr">
         <is>
           <t>TRADING ACTIVITY SUMMARY</t>
         </is>
@@ -964,7 +970,7 @@
       <c r="E17" s="22" t="n"/>
     </row>
     <row r="18" ht="25" customHeight="1">
-      <c r="A18" s="37" t="inlineStr">
+      <c r="A18" s="40" t="inlineStr">
         <is>
           <t>Total Trades</t>
         </is>
@@ -975,7 +981,7 @@
       <c r="E18" s="22" t="n"/>
     </row>
     <row r="19" ht="25" customHeight="1">
-      <c r="A19" s="37" t="inlineStr">
+      <c r="A19" s="40" t="inlineStr">
         <is>
           <t>Buy Transactions</t>
         </is>
@@ -986,7 +992,7 @@
       <c r="E19" s="22" t="n"/>
     </row>
     <row r="20" ht="25" customHeight="1">
-      <c r="A20" s="37" t="inlineStr">
+      <c r="A20" s="40" t="inlineStr">
         <is>
           <t>Sell Transactions</t>
         </is>
@@ -1032,7 +1038,7 @@
           <t>1. Portfolio demonstrates consistent positive growth with strong cumulative returns</t>
         </is>
       </c>
-      <c r="B23" s="21" t="n"/>
+      <c r="B23" s="22" t="n"/>
       <c r="C23" s="21" t="n"/>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="22" t="n"/>
@@ -1043,7 +1049,7 @@
           <t>2. High win rate (83%+ positive months) indicates favorable market positioning</t>
         </is>
       </c>
-      <c r="B24" s="21" t="n"/>
+      <c r="B24" s="22" t="n"/>
       <c r="C24" s="21" t="n"/>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="22" t="n"/>
@@ -1054,7 +1060,7 @@
           <t>3. Dividend accumulation provides steady passive income stream</t>
         </is>
       </c>
-      <c r="B25" s="21" t="n"/>
+      <c r="B25" s="22" t="n"/>
       <c r="C25" s="21" t="n"/>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="22" t="n"/>
@@ -1076,7 +1082,7 @@
           <t>5. Trading activity shows disciplined approach with measured transactions</t>
         </is>
       </c>
-      <c r="B27" s="21" t="n"/>
+      <c r="B27" s="22" t="n"/>
       <c r="C27" s="21" t="n"/>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="22" t="n"/>
@@ -1087,14 +1093,14 @@
           <t>6. Risk management evident from contained worst-month losses relative to gains</t>
         </is>
       </c>
-      <c r="B28" s="21" t="n"/>
+      <c r="B28" s="22" t="n"/>
       <c r="C28" s="21" t="n"/>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="22" t="n"/>
     </row>
     <row r="29" ht="8" customHeight="1"/>
     <row r="30" ht="22" customHeight="1">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="41" t="inlineStr">
         <is>
           <t>ACTION ITEMS &amp; STRATEGY</t>
         </is>
@@ -1139,7 +1145,7 @@
           <t>4. Rebalance portfolio if allocation drifts &gt;10% from target</t>
         </is>
       </c>
-      <c r="B34" s="21" t="n"/>
+      <c r="B34" s="22" t="n"/>
       <c r="C34" s="21" t="n"/>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="22" t="n"/>

--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -975,10 +975,6 @@
           <t>Total Trades</t>
         </is>
       </c>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="21" t="n"/>
-      <c r="D18" s="21" t="n"/>
-      <c r="E18" s="22" t="n"/>
     </row>
     <row r="19" ht="25" customHeight="1">
       <c r="A19" s="40" t="inlineStr">
@@ -986,10 +982,6 @@
           <t>Buy Transactions</t>
         </is>
       </c>
-      <c r="B19" s="21" t="n"/>
-      <c r="C19" s="21" t="n"/>
-      <c r="D19" s="21" t="n"/>
-      <c r="E19" s="22" t="n"/>
     </row>
     <row r="20" ht="25" customHeight="1">
       <c r="A20" s="40" t="inlineStr">
@@ -997,10 +989,6 @@
           <t>Sell Transactions</t>
         </is>
       </c>
-      <c r="B20" s="21" t="n"/>
-      <c r="C20" s="21" t="n"/>
-      <c r="D20" s="21" t="n"/>
-      <c r="E20" s="22" t="n"/>
     </row>
     <row r="21" ht="8" customHeight="1">
       <c r="A21" s="10" t="inlineStr">
@@ -1173,7 +1161,7 @@
       <c r="E36" s="22" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="29">
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A24:E24"/>
@@ -1187,7 +1175,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B27:E27"/>
@@ -1200,9 +1187,7 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="A31:E31"/>

--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -572,9 +572,6 @@
               </a:ln>
             </spPr>
           </marker>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
           <cat>
             <strRef>
               <f>'Executive Summary'!$G$4:$G$15</f>
@@ -666,14 +663,6 @@
           </val>
           <smooth val="1"/>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <smooth val="0"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -809,9 +798,6 @@
             </a:ln>
           </spPr>
           <invertIfNegative val="1"/>
-          <dLbls>
-            <showVal val="1"/>
-          </dLbls>
           <cat>
             <strRef>
               <f>'Executive Summary'!$J$4:$J$15</f>
@@ -901,15 +887,16 @@
               </numCache>
             </numRef>
           </val>
+          <dLbls>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <dLbl>
+              <idx val="10"/>
+              <showVal val="1"/>
+            </dLbl>
+          </dLbls>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -1260,6 +1247,242 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
@@ -1380,7 +1603,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
@@ -1625,6 +1848,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -106,8 +106,13 @@
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill/>
     </fill>
@@ -222,6 +227,18 @@
         <bgColor rgb="00F1DCDB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00595959"/>
+        <bgColor rgb="00595959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070AD47"/>
+        <bgColor rgb="0070AD47"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -308,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -439,6 +456,12 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="14" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,6 +765,119 @@
       <legendPos val="r"/>
       <overlay val="0"/>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1483,7 +1619,6 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1605,7 +1740,6 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1713,6 +1847,125 @@
     <legend>
       <legendPos val="b"/>
     </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1892,6 +2145,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3309,69 +3606,69 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" s="26">
-      <c r="A9" s="41" t="inlineStr">
-        <is>
-          <t>Return %</t>
-        </is>
-      </c>
-      <c r="B9" s="43" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="C9" s="43" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="D9" s="43" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="E9" s="43" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="F9" s="43" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="G9" s="43" t="inlineStr">
-        <is>
-          <t>2.15%</t>
-        </is>
-      </c>
-      <c r="H9" s="43" t="inlineStr">
-        <is>
-          <t>0.05%</t>
-        </is>
-      </c>
-      <c r="I9" s="43" t="inlineStr">
-        <is>
-          <t>0.05%</t>
-        </is>
-      </c>
-      <c r="J9" s="43" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="K9" s="43" t="inlineStr">
-        <is>
-          <t>0.23%</t>
-        </is>
-      </c>
-      <c r="L9" s="43" t="inlineStr">
-        <is>
-          <t>1.33%</t>
-        </is>
-      </c>
-      <c r="M9" s="43" t="inlineStr">
-        <is>
-          <t>0.92%</t>
+      <c r="A9" s="49" t="inlineStr">
+        <is>
+          <t>Win/Loss Indicator</t>
+        </is>
+      </c>
+      <c r="B9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="L9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="M9" s="50" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>

--- a/Portfolio Report - Traditional IRA Enhanced.xlsx
+++ b/Portfolio Report - Traditional IRA Enhanced.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,6 +110,16 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4788"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="22">
@@ -240,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -321,11 +331,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="004472C4"/>
+      </left>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="004472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="004472C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="004472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -462,6 +530,20 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,6 +854,237 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Monthly Returns - 12 Month Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!K3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$J$4:$J$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$K$4:$K$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Profit ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Growth - 12 Month Progression</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!H3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="30000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Portfolio Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
@@ -1855,7 +2168,6 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2194,6 +2506,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -4515,9 +4871,9 @@
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" s="26">
-      <c r="A28" s="35" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 Performance</t>
+      <c r="A28" s="51" t="inlineStr">
+        <is>
+          <t>Performance Summary</t>
         </is>
       </c>
       <c r="B28" s="36" t="n"/>
@@ -4534,217 +4890,153 @@
       <c r="M28" s="37" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1" s="26">
-      <c r="A29" s="41" t="inlineStr">
-        <is>
-          <t>IRA Portfolio Return</t>
-        </is>
-      </c>
-      <c r="B29" s="46" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="C29" s="46" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="D29" s="46" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="E29" s="46" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="F29" s="46" t="inlineStr">
-        <is>
-          <t>0.03%</t>
-        </is>
-      </c>
-      <c r="G29" s="46" t="inlineStr">
-        <is>
-          <t>2.15%</t>
-        </is>
-      </c>
-      <c r="H29" s="46" t="inlineStr">
-        <is>
-          <t>0.05%</t>
-        </is>
-      </c>
-      <c r="I29" s="46" t="inlineStr">
-        <is>
-          <t>0.05%</t>
-        </is>
-      </c>
-      <c r="J29" s="46" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="K29" s="46" t="inlineStr">
-        <is>
-          <t>0.23%</t>
-        </is>
-      </c>
-      <c r="L29" s="46" t="inlineStr">
-        <is>
-          <t>1.33%</t>
-        </is>
-      </c>
-      <c r="M29" s="46" t="inlineStr">
-        <is>
-          <t>0.92%</t>
-        </is>
-      </c>
+      <c r="A29" s="52" t="inlineStr">
+        <is>
+          <t>Win Rate</t>
+        </is>
+      </c>
+      <c r="B29" s="53" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="C29" s="54" t="n"/>
+      <c r="D29" s="54" t="n"/>
+      <c r="E29" s="54" t="n"/>
+      <c r="F29" s="54" t="n"/>
+      <c r="G29" s="54" t="n"/>
+      <c r="H29" s="54" t="n"/>
+      <c r="I29" s="54" t="n"/>
+      <c r="J29" s="54" t="n"/>
+      <c r="K29" s="54" t="n"/>
+      <c r="L29" s="54" t="n"/>
+      <c r="M29" s="55" t="n"/>
     </row>
     <row r="30" ht="18" customHeight="1" s="26">
-      <c r="A30" s="41" t="inlineStr">
-        <is>
-          <t>Outperformance vs S&amp;P</t>
-        </is>
-      </c>
-      <c r="B30" s="46" t="inlineStr">
-        <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="C30" s="46" t="inlineStr">
-        <is>
-          <t>0.59%</t>
-        </is>
-      </c>
-      <c r="D30" s="46" t="inlineStr">
-        <is>
-          <t>-6.25%</t>
-        </is>
-      </c>
-      <c r="E30" s="46" t="inlineStr">
-        <is>
-          <t>-4.80%</t>
-        </is>
-      </c>
-      <c r="F30" s="46" t="inlineStr">
-        <is>
-          <t>-2.55%</t>
-        </is>
-      </c>
-      <c r="G30" s="46" t="inlineStr">
-        <is>
-          <t>0.10%</t>
-        </is>
-      </c>
-      <c r="H30" s="46" t="inlineStr">
-        <is>
-          <t>-3.23%</t>
-        </is>
-      </c>
-      <c r="I30" s="46" t="inlineStr">
-        <is>
-          <t>-2.60%</t>
-        </is>
-      </c>
-      <c r="J30" s="46" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="K30" s="46" t="inlineStr">
-        <is>
-          <t>0.46%</t>
-        </is>
-      </c>
-      <c r="L30" s="46" t="inlineStr">
-        <is>
-          <t>-0.43%</t>
-        </is>
-      </c>
-      <c r="M30" s="46" t="inlineStr">
-        <is>
-          <t>1.12%</t>
-        </is>
-      </c>
+      <c r="A30" s="52" t="inlineStr">
+        <is>
+          <t>Wins / Losses</t>
+        </is>
+      </c>
+      <c r="B30" s="53" t="inlineStr">
+        <is>
+          <t>12 / 0</t>
+        </is>
+      </c>
+      <c r="C30" s="54" t="n"/>
+      <c r="D30" s="54" t="n"/>
+      <c r="E30" s="54" t="n"/>
+      <c r="F30" s="54" t="n"/>
+      <c r="G30" s="54" t="n"/>
+      <c r="H30" s="54" t="n"/>
+      <c r="I30" s="54" t="n"/>
+      <c r="J30" s="54" t="n"/>
+      <c r="K30" s="54" t="n"/>
+      <c r="L30" s="54" t="n"/>
+      <c r="M30" s="55" t="n"/>
     </row>
     <row r="31" ht="18" customHeight="1" s="26">
-      <c r="A31" s="41" t="n"/>
-      <c r="B31" s="46" t="n"/>
-      <c r="C31" s="46" t="n"/>
-      <c r="D31" s="46" t="n"/>
-      <c r="E31" s="46" t="n"/>
-      <c r="F31" s="46" t="n"/>
-      <c r="G31" s="46" t="n"/>
-      <c r="H31" s="46" t="n"/>
-      <c r="I31" s="46" t="n"/>
-      <c r="J31" s="46" t="n"/>
-      <c r="K31" s="46" t="n"/>
-      <c r="L31" s="46" t="n"/>
-      <c r="M31" s="46" t="n"/>
+      <c r="A31" s="52" t="inlineStr">
+        <is>
+          <t>Avg Profit</t>
+        </is>
+      </c>
+      <c r="B31" s="53" t="inlineStr">
+        <is>
+          <t>$2,069.44</t>
+        </is>
+      </c>
+      <c r="C31" s="54" t="n"/>
+      <c r="D31" s="54" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="54" t="n"/>
+      <c r="G31" s="54" t="n"/>
+      <c r="H31" s="54" t="n"/>
+      <c r="I31" s="54" t="n"/>
+      <c r="J31" s="54" t="n"/>
+      <c r="K31" s="54" t="n"/>
+      <c r="L31" s="54" t="n"/>
+      <c r="M31" s="55" t="n"/>
     </row>
     <row r="32" ht="18" customHeight="1" s="26">
-      <c r="A32" s="41" t="n"/>
-      <c r="B32" s="46" t="n"/>
-      <c r="C32" s="46" t="n"/>
-      <c r="D32" s="46" t="n"/>
-      <c r="E32" s="46" t="n"/>
-      <c r="F32" s="46" t="n"/>
-      <c r="G32" s="46" t="n"/>
-      <c r="H32" s="46" t="n"/>
-      <c r="I32" s="46" t="n"/>
-      <c r="J32" s="46" t="n"/>
-      <c r="K32" s="46" t="n"/>
-      <c r="L32" s="46" t="n"/>
-      <c r="M32" s="46" t="n"/>
-    </row>
-    <row r="33" ht="20.1" customHeight="1" s="26">
-      <c r="A33" s="41" t="inlineStr">
-        <is>
-          <t>12-MONTH SUMMARY</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="42" t="n"/>
-      <c r="I33" s="42" t="n"/>
-      <c r="J33" s="42" t="n"/>
-      <c r="K33" s="42" t="n"/>
-      <c r="L33" s="42" t="n"/>
-      <c r="M33" s="42" t="n"/>
+      <c r="A32" s="52" t="inlineStr">
+        <is>
+          <t>Avg Loss</t>
+        </is>
+      </c>
+      <c r="B32" s="53" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C32" s="54" t="n"/>
+      <c r="D32" s="54" t="n"/>
+      <c r="E32" s="54" t="n"/>
+      <c r="F32" s="54" t="n"/>
+      <c r="G32" s="54" t="n"/>
+      <c r="H32" s="54" t="n"/>
+      <c r="I32" s="54" t="n"/>
+      <c r="J32" s="54" t="n"/>
+      <c r="K32" s="54" t="n"/>
+      <c r="L32" s="54" t="n"/>
+      <c r="M32" s="55" t="n"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" s="26">
+      <c r="A33" s="52" t="inlineStr">
+        <is>
+          <t>Profit Factor</t>
+        </is>
+      </c>
+      <c r="B33" s="53" t="inlineStr">
+        <is>
+          <t>24833.25</t>
+        </is>
+      </c>
+      <c r="C33" s="54" t="n"/>
+      <c r="D33" s="54" t="n"/>
+      <c r="E33" s="54" t="n"/>
+      <c r="F33" s="54" t="n"/>
+      <c r="G33" s="54" t="n"/>
+      <c r="H33" s="54" t="n"/>
+      <c r="I33" s="54" t="n"/>
+      <c r="J33" s="54" t="n"/>
+      <c r="K33" s="54" t="n"/>
+      <c r="L33" s="54" t="n"/>
+      <c r="M33" s="55" t="n"/>
     </row>
     <row r="34" ht="18" customHeight="1" s="26">
-      <c r="A34" s="41" t="inlineStr">
-        <is>
-          <t>Total Profit (12 Months)</t>
-        </is>
-      </c>
-      <c r="B34" s="47" t="n">
-        <v>24833.25</v>
-      </c>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="42" t="n"/>
-      <c r="I34" s="42" t="n"/>
-      <c r="J34" s="42" t="n"/>
-      <c r="K34" s="42" t="n"/>
-      <c r="L34" s="42" t="n"/>
-      <c r="M34" s="42" t="n"/>
+      <c r="A34" s="52" t="inlineStr">
+        <is>
+          <t>Largest Win</t>
+        </is>
+      </c>
+      <c r="B34" s="56" t="inlineStr">
+        <is>
+          <t>$8,862.48</t>
+        </is>
+      </c>
+      <c r="C34" s="54" t="n"/>
+      <c r="D34" s="54" t="n"/>
+      <c r="E34" s="54" t="n"/>
+      <c r="F34" s="54" t="n"/>
+      <c r="G34" s="54" t="n"/>
+      <c r="H34" s="54" t="n"/>
+      <c r="I34" s="54" t="n"/>
+      <c r="J34" s="54" t="n"/>
+      <c r="K34" s="54" t="n"/>
+      <c r="L34" s="54" t="n"/>
+      <c r="M34" s="55" t="n"/>
     </row>
     <row r="35" ht="18" customHeight="1" s="26">
-      <c r="A35" s="41" t="inlineStr">
-        <is>
-          <t>Total Dividends</t>
-        </is>
-      </c>
-      <c r="B35" s="47" t="n">
-        <v>8949.030000000001</v>
+      <c r="A35" s="52" t="inlineStr">
+        <is>
+          <t>Largest Loss</t>
+        </is>
+      </c>
+      <c r="B35" s="56" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
       </c>
       <c r="C35" s="42" t="n"/>
       <c r="D35" s="42" t="n"/>
@@ -4845,11 +5137,17 @@
       <c r="M39" s="42" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="A14:M14"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B33:M33"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A22:M22"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B32:M32"/>
     <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B29:M29"/>
     <mergeCell ref="A28:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
